--- a/OldEgg Schema.xlsx
+++ b/OldEgg Schema.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/irfansya002_e_ntu_edu_sg/Documents/Y1S2/IDP - IM2073/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irfansyakir/Documents/OldEgg Project/OldEgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{B93D0432-504A-994F-9253-6D4D8051A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16DBB5FA-CF89-4F3B-B9A0-1269197D9666}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2F7F6-41DD-BE4E-934D-D98282AAC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{77102896-566B-D147-AF31-283E502716C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{77102896-566B-D147-AF31-283E502716C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Motherboard" sheetId="1" r:id="rId1"/>
-    <sheet name="GPU" sheetId="2" r:id="rId2"/>
-    <sheet name="CPU" sheetId="3" r:id="rId3"/>
-    <sheet name="RAM" sheetId="4" r:id="rId4"/>
-    <sheet name="Case" sheetId="5" r:id="rId5"/>
-    <sheet name="Storage" sheetId="7" r:id="rId6"/>
-    <sheet name="Cooler" sheetId="6" r:id="rId7"/>
+    <sheet name="gpus" sheetId="2" r:id="rId1"/>
+    <sheet name="cpus" sheetId="3" r:id="rId2"/>
+    <sheet name="motherboards" sheetId="1" r:id="rId3"/>
+    <sheet name="rams" sheetId="4" r:id="rId4"/>
+    <sheet name="storages" sheetId="7" r:id="rId5"/>
+    <sheet name="cases" sheetId="5" r:id="rId6"/>
+    <sheet name="coolers" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="186">
   <si>
     <t>link</t>
   </si>
@@ -65,9 +65,6 @@
     <t>AM5</t>
   </si>
   <si>
-    <t>https://media.karousell.com/media/photos/products/2022/10/12/asus_tuf_gaming_b650plus_wifi__1665598922_cdd698da</t>
-  </si>
-  <si>
     <t>LGA1700</t>
   </si>
   <si>
@@ -95,120 +92,33 @@
     <t>https://m.media-amazon.com/images/I/91L1ts-j0LL._AC_UF894,1000_QL80_.jpg</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>Sapphire</t>
-  </si>
-  <si>
-    <t>RX 6800</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81EkCyIHlJL.jpg</t>
   </si>
   <si>
-    <t>Nvidia</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>RTX 2070 Super</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61-Y84LPYzL.jpg</t>
   </si>
   <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>RTX 4090</t>
-  </si>
-  <si>
     <t>https://bytesize.com.sg/wp-content/uploads/2022/10/ROG-Strix-GeForce-RTX®-4090-OC-Edition-24GB-GDDR6X.png</t>
   </si>
   <si>
-    <t>PowerColor</t>
-  </si>
-  <si>
-    <t>RX 7900 XTX</t>
-  </si>
-  <si>
     <t>https://www.powercolor.com/_upload/images//2211180944190.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Zotac </t>
-  </si>
-  <si>
-    <t>GTX 1060</t>
-  </si>
-  <si>
     <t>https://www.zotac.com/download/files/styles/w1024/public/product_gallery/graphics_cards/zt-p10600b-10m_inage1.jpg?itok=yPhrJtMX</t>
   </si>
   <si>
-    <t>RTX 3080</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81UV-e3xgeL.jpg</t>
   </si>
   <si>
-    <t>XFX</t>
-  </si>
-  <si>
-    <t>RX 6800 XT</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81-70VBUexL.jpg</t>
   </si>
   <si>
-    <t>Gigabyte</t>
-  </si>
-  <si>
-    <t>RX 6500 XT</t>
-  </si>
-  <si>
     <t>https://cf.shopee.sg/file/3fa348fcf7624dfb97c398e5d51eab3f</t>
   </si>
   <si>
-    <t>RX 6650</t>
-  </si>
-  <si>
     <t>https://asset.msi.com/resize/image/global/product/product_1652175968d2d39b873b3c725249e989821bd092de.png62405b38c58fe0f07fcef2367d8a9ba1/1024.png</t>
   </si>
   <si>
-    <t>Ryzen 7 5800X3D</t>
-  </si>
-  <si>
-    <t>Ryzen 7 5600X</t>
-  </si>
-  <si>
-    <t>Ryzen 7 5800X</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>Core i5-13600K</t>
-  </si>
-  <si>
-    <t>Core i9-13900K</t>
-  </si>
-  <si>
-    <t>Ryzen 9 7950X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel </t>
-  </si>
-  <si>
-    <t>Core i7-12700KF</t>
-  </si>
-  <si>
-    <t>Core i7-13700K</t>
-  </si>
-  <si>
-    <t>Ryzen 9 5900X</t>
-  </si>
-  <si>
     <t>Corsair Vengeance LPX 16 GB</t>
   </si>
   <si>
@@ -506,52 +416,190 @@
     <t>module</t>
   </si>
   <si>
-    <t xml:space="preserve">brand </t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>socket</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>ASRock</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>MAG B550 TOMAHAWK</t>
-  </si>
-  <si>
-    <t>B550M PRO-VDH WIFI</t>
-  </si>
-  <si>
-    <t>TUF GAMING B650-PLUS WIFI</t>
-  </si>
-  <si>
-    <t>Z790 AORUS ELITE AX</t>
-  </si>
-  <si>
-    <t>B650 AORUS ELITE AX</t>
-  </si>
-  <si>
-    <t>B660M-HDV</t>
-  </si>
-  <si>
-    <t>ROG STRIX B550-F GAMING WIFI II</t>
-  </si>
-  <si>
-    <t>Z590 Pro4</t>
-  </si>
-  <si>
-    <t>Prime B550M-A WiFi</t>
+    <t>MSI MAG B550 TOMAHAWK</t>
+  </si>
+  <si>
+    <t>MSI B550M PRO-VDH WIFI</t>
+  </si>
+  <si>
+    <t>ASUS TUF GAMING B650-PLUS WIFI</t>
+  </si>
+  <si>
+    <t>Gigabyte Z790 AORUS ELITE AX</t>
+  </si>
+  <si>
+    <t>Gigabyte B650 AORUS ELITE AX</t>
+  </si>
+  <si>
+    <t>ASRock B660M-HDV</t>
+  </si>
+  <si>
+    <t>Asus ROG STRIX B550-F GAMING WIFI II</t>
+  </si>
+  <si>
+    <t>Asrock Z590 Pro4</t>
+  </si>
+  <si>
+    <t>Asus Prime B550M-A WiFi</t>
+  </si>
+  <si>
+    <t>formfactor</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61BLpnAud-L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>NVIDIA ASUS ROG STRIX RTX 4090</t>
+  </si>
+  <si>
+    <t>NVIDIA ZOTAC GTX 1060</t>
+  </si>
+  <si>
+    <t>NVIDIA MSI SUPRIM RTX 3080</t>
+  </si>
+  <si>
+    <t>AMD XFX MERC 319 RX 6800 XT</t>
+  </si>
+  <si>
+    <t>GIGABYTE Z690 AORUS PRO</t>
+  </si>
+  <si>
+    <t>AMD POWER RED DEVIL RX 7900 XTX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD SAPPHIRE NITRO+ RX 6800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA MSI RTX 2070 SUPER VENTUS </t>
+  </si>
+  <si>
+    <t>GIGABYTE RX 6500XT EAGLE</t>
+  </si>
+  <si>
+    <t>MSI RX 6650XT MECH</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 7 5800X3D</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 7 5600X</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 7 5800X</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 9 7950X</t>
+  </si>
+  <si>
+    <t>INTEL CORE i5-13600K</t>
+  </si>
+  <si>
+    <t>INTEL CORE i9-13900K</t>
+  </si>
+  <si>
+    <t>INTEL CORE i7-12700KF</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 9 5900X</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Kq99IRdcL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61DYLoyNRWL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61ObMmbxwgL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61uI+orDOZL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51nBGlyDOoL.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51o+isnQxdL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61gcREq9LqL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/616VM20+AzL._AC_SL1384_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81SXll1-k8L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ASRock A320M-HDV R4.0</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71EXL1PByOL._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t>MSI MPG B560I Gaming Edge WiFi</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81l4XjB+uVL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix B550-A</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91LqAWWBgSL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming B760-PLUS WiFi D4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81Kr0WwOO0L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>MSI PRO Z690-A DDR4 ProSeries</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ZpekDlH3L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>XFX SPEEDSTER MERC310 AMD Radeon RX 7900XT</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61F2rF1rKCL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>ASUS TUF GAMING RTX 4080</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81BTQB6jbXL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81kQDW0TzoL._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71AAVqtFfvL._AC_UL640_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>MSI RTX 3060 GAMING X TRIO</t>
+  </si>
+  <si>
+    <t>ZOTAC GTX 1660 SUPER</t>
+  </si>
+  <si>
+    <t>GIGABYTE RX 6900 XT GAMING OC</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/811sBakp3+L._AC_UL640_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>MSI GTX 1660 SUPER VENTUS XS</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/619Ui9f--pL._AC_SL1000_.jpg</t>
   </si>
 </sst>
 </file>
@@ -559,11 +607,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -584,6 +632,12 @@
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -609,9 +663,9 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -630,10 +684,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,665 +975,787 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92E4109-F6B1-E946-A2B9-5737B2D369DB}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAAB6F-9E62-3845-85E0-19A3456B57F7}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2581.54</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1923.52</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3">
+        <v>330</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>1100</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>335.45</v>
-      </c>
-      <c r="E2">
-        <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>254.92</v>
-      </c>
-      <c r="E3">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>346.96</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>413.63</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10">
+        <v>451.64</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <v>1262.76</v>
+      </c>
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>2128</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13">
+        <v>1488</v>
+      </c>
+      <c r="C13">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>435.73</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>216.86</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>360.32</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>253.6</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
+        <v>362.07</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15">
+        <v>603.44000000000005</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16">
+        <v>384.44</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{FEF2FB14-126F-4CF7-B40C-B9A417BDABD5}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{E9DE4B73-A4B6-4E5D-B4CB-C61B7248334A}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{96CADC91-52F2-473B-AF13-5A7538006ED4}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{FDF6E06E-A083-4385-81C5-CB5791B720FC}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{E0E39B9A-2B5B-4475-BBE2-A655AEE66899}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{3176D69B-0CF5-4D86-9640-2560E655B1CD}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{CD186F45-92FC-4C86-8280-BDF8AFB8D53E}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{E69D9718-342D-4A5F-A56D-D14AC756BB93}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C885FA35-D2BC-4303-B172-53968DAB9F43}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{6F46E318-19C9-4A0E-B948-5F9BAE2B6972}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{C11A970C-E691-40D7-BEFB-9234C935A4B9}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{1C3CC82A-EF40-45E9-99CD-AD7F2158135F}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{2AACD536-D93C-41B3-B587-84A5BEA4F05A}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{603923EB-CE57-4446-9493-ABF71028D4CF}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{95A950B6-ADE6-4B04-A23A-14303BD71398}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{892B6719-E8BD-451D-81F4-60F8452A8CE5}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{9F622F1B-2533-4F95-94F3-9F0A5A1BF156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAAB6F-9E62-3845-85E0-19A3456B57F7}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF267F-2EC0-D449-8DB3-8973D99C4ABE}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="164" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>550</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>290.17</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>382.31</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>492.47</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6">
+        <v>892</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <v>921.23</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8">
+        <v>443.95</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>643.37</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>700</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2581.54</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1923.52</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>330</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>1200</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>1100</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>220</v>
-      </c>
-      <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>451.64</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>538.91</v>
+      </c>
+      <c r="C10">
+        <v>199</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{C885FA35-D2BC-4303-B172-53968DAB9F43}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6F46E318-19C9-4A0E-B948-5F9BAE2B6972}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{C11A970C-E691-40D7-BEFB-9234C935A4B9}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{1C3CC82A-EF40-45E9-99CD-AD7F2158135F}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{2AACD536-D93C-41B3-B587-84A5BEA4F05A}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{603923EB-CE57-4446-9493-ABF71028D4CF}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{95A950B6-ADE6-4B04-A23A-14303BD71398}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{892B6719-E8BD-451D-81F4-60F8452A8CE5}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{9F622F1B-2533-4F95-94F3-9F0A5A1BF156}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{015DF5EC-D022-0243-86B2-68D805296DEE}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{54960EE3-35A0-B147-8D32-2351D1DE23CF}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{B2ABD10A-AE4A-5149-B6D5-BB2A5CF5A5A0}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{3B06E5FD-0740-E94B-9091-CC8099F4A80B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B083C9DC-6611-844E-A35E-B260D9AB44A5}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{078BED38-E440-474D-9192-3EC4D6008C91}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{52B9FC86-3B25-584C-BFBD-1F1D97C674FA}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{AECDFA9B-A28F-2D48-ABCB-E7BB27F671F2}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{6F41043D-F05A-E24D-94BF-89A71EBAA506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF267F-2EC0-D449-8DB3-8973D99C4ABE}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92E4109-F6B1-E946-A2B9-5737B2D369DB}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>550</v>
+        <v>335.45</v>
       </c>
       <c r="D2">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
       <c r="C3">
-        <v>290.17</v>
+        <v>254.92</v>
       </c>
       <c r="D3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>382.31</v>
+        <v>346.96</v>
       </c>
       <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>492.47</v>
+        <v>413.63</v>
       </c>
       <c r="D5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>892</v>
+        <v>435.73</v>
       </c>
       <c r="D6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>921.23</v>
+        <v>216.86</v>
       </c>
       <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>360.32</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>443.95</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
       <c r="C9">
-        <v>643.37</v>
+        <v>253.6</v>
       </c>
       <c r="D9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>519</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>125</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>438.17</v>
+      </c>
+      <c r="D13">
         <v>54</v>
       </c>
-      <c r="C10">
-        <v>538.91</v>
-      </c>
-      <c r="D10">
-        <v>199</v>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>258.76</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>306.97000000000003</v>
+      </c>
+      <c r="D15">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>277.73</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FEF2FB14-126F-4CF7-B40C-B9A417BDABD5}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{E9DE4B73-A4B6-4E5D-B4CB-C61B7248334A}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{96CADC91-52F2-473B-AF13-5A7538006ED4}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{FDF6E06E-A083-4385-81C5-CB5791B720FC}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{E0E39B9A-2B5B-4475-BBE2-A655AEE66899}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{3176D69B-0CF5-4D86-9640-2560E655B1CD}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{CD186F45-92FC-4C86-8280-BDF8AFB8D53E}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{E69D9718-342D-4A5F-A56D-D14AC756BB93}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{C2834AFB-897D-AF49-B78E-2DC6F0AEF0E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1591,46 +1763,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891790CD-FED9-6645-971C-1B8467011DAA}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="248" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>105.63</v>
@@ -1639,18 +1811,18 @@
         <v>427</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>199.64</v>
@@ -1659,18 +1831,18 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>160.93</v>
@@ -1679,18 +1851,18 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>260.12</v>
@@ -1699,18 +1871,18 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>361.87</v>
@@ -1719,18 +1891,18 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>188.84</v>
@@ -1739,18 +1911,18 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>99.55</v>
@@ -1759,18 +1931,18 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>129.99</v>
@@ -1779,18 +1951,18 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>64.98</v>
@@ -1799,7 +1971,7 @@
         <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1811,196 +1983,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6948162-75CF-754A-8D23-788AF1B9B792}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>94.66</v>
-      </c>
-      <c r="D2">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>125</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>169.78</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>49.99</v>
-      </c>
-      <c r="D5">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>59.99</v>
-      </c>
-      <c r="D6">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>89.99</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>179.95</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>174.99</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>327.98</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5AC9D9-31BA-4139-8BDE-4C94495BE8F1}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2009,51 +1991,51 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>79.98</v>
@@ -2062,21 +2044,21 @@
         <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>159.99</v>
@@ -2085,21 +2067,21 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>49.99</v>
@@ -2108,21 +2090,21 @@
         <v>688</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>159.99</v>
@@ -2131,21 +2113,21 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>129.97</v>
@@ -2154,21 +2136,21 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>49.99</v>
@@ -2177,21 +2159,21 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>58.22</v>
@@ -2200,21 +2182,21 @@
         <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>499.99</v>
@@ -2223,21 +2205,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>399.99</v>
@@ -2246,7 +2228,197 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6948162-75CF-754A-8D23-788AF1B9B792}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>94.66</v>
+      </c>
+      <c r="D2">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>169.78</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>49.99</v>
+      </c>
+      <c r="D5">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>59.99</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>89.99</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>179.95</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>174.99</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>327.98</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2258,42 +2430,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F97681-E668-D94B-BE2A-DD62A4BE3D93}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>85.02</v>
@@ -2302,15 +2474,15 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>99.9</v>
@@ -2319,15 +2491,15 @@
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>89.9</v>
@@ -2336,15 +2508,15 @@
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>104.94</v>
@@ -2353,15 +2525,15 @@
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>34.99</v>
@@ -2370,15 +2542,15 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2387,15 +2559,15 @@
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>149.99</v>
@@ -2404,15 +2576,15 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>19.98</v>
@@ -2421,15 +2593,15 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>289.99</v>
@@ -2438,7 +2610,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/OldEgg Schema.xlsx
+++ b/OldEgg Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irfansyakir/Documents/OldEgg Project/OldEgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2F7F6-41DD-BE4E-934D-D98282AAC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDD31E-FE23-5B43-A304-11FD76767DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{77102896-566B-D147-AF31-283E502716C7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="216">
   <si>
     <t>link</t>
   </si>
@@ -74,18 +74,12 @@
     <t>https://media.ldlc.com/r1600/ld/products/00/05/98/55/LD0005985556.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">	LGA1700</t>
-  </si>
-  <si>
     <t>https://www.asrock.com/mb/photo/B660M-HDV(M1).png</t>
   </si>
   <si>
     <t>https://simlimsquare.com.sg/image/images/620da7ae93efb.jpg?p=full</t>
   </si>
   <si>
-    <t xml:space="preserve">	LGA1200</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/91+aWDgEKYL.jpg</t>
   </si>
   <si>
@@ -476,36 +470,6 @@
     <t xml:space="preserve">NVIDIA MSI RTX 2070 SUPER VENTUS </t>
   </si>
   <si>
-    <t>GIGABYTE RX 6500XT EAGLE</t>
-  </si>
-  <si>
-    <t>MSI RX 6650XT MECH</t>
-  </si>
-  <si>
-    <t>AMD RYZEN 7 5800X3D</t>
-  </si>
-  <si>
-    <t>AMD RYZEN 7 5600X</t>
-  </si>
-  <si>
-    <t>AMD RYZEN 7 5800X</t>
-  </si>
-  <si>
-    <t>AMD RYZEN 9 7950X</t>
-  </si>
-  <si>
-    <t>INTEL CORE i5-13600K</t>
-  </si>
-  <si>
-    <t>INTEL CORE i9-13900K</t>
-  </si>
-  <si>
-    <t>INTEL CORE i7-12700KF</t>
-  </si>
-  <si>
-    <t>AMD RYZEN 9 5900X</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61Kq99IRdcL.jpg</t>
   </si>
   <si>
@@ -566,15 +530,9 @@
     <t>https://m.media-amazon.com/images/I/91ZpekDlH3L._AC_SL1500_.jpg</t>
   </si>
   <si>
-    <t>XFX SPEEDSTER MERC310 AMD Radeon RX 7900XT</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/61F2rF1rKCL._AC_UL640_FMwebp_QL65_.jpg</t>
   </si>
   <si>
-    <t>ASUS TUF GAMING RTX 4080</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/81BTQB6jbXL._AC_UL640_FMwebp_QL65_.jpg</t>
   </si>
   <si>
@@ -584,33 +542,160 @@
     <t>https://m.media-amazon.com/images/I/71AAVqtFfvL._AC_UL640_QL65_.jpg</t>
   </si>
   <si>
-    <t>MSI RTX 3060 GAMING X TRIO</t>
-  </si>
-  <si>
-    <t>ZOTAC GTX 1660 SUPER</t>
-  </si>
-  <si>
-    <t>GIGABYTE RX 6900 XT GAMING OC</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/811sBakp3+L._AC_UL640_FMwebp_QL65_.jpg</t>
-  </si>
-  <si>
-    <t>MSI GTX 1660 SUPER VENTUS XS</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/I/619Ui9f--pL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5800X3D</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5600X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5800X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7950X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900X</t>
+  </si>
+  <si>
+    <t>LGA1200</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71XcVOdHX+S._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81ywJlcuVOL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>AMD GIGABYTE RX 6500XT EAGLE</t>
+  </si>
+  <si>
+    <t>AMD MSI RX 6650XT MECH</t>
+  </si>
+  <si>
+    <t>AMD XFX SPEEDSTER MERC310 AMD RX 7900 XT</t>
+  </si>
+  <si>
+    <t>NVIDIA ASUS TUF GAMING RTX 4080</t>
+  </si>
+  <si>
+    <t>AMD GIGABYTE RX 6900 XT GAMING OC</t>
+  </si>
+  <si>
+    <t>NVIDIA ZOTAC GTX 1660 SUPER</t>
+  </si>
+  <si>
+    <t>NVIDIA MSI GTX 1660 SUPER VENTUS XS</t>
+  </si>
+  <si>
+    <t>NVIDIA GIGABYTE RTX 3070 GAMING OC</t>
+  </si>
+  <si>
+    <t>NVIDIA ZOTAC RTX 4070 TI TRINITY OC</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600G</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51f2hkWjTlL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41MO1qkT+FL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 3200G</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Dx39HJ8kL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 3100</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71DTUOZdDnL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i3-10100</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51S2a+GyxUS._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51V+MalhMHL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i5-12400</t>
+  </si>
+  <si>
+    <t>Intel Core i5-11400F</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71LIKeM7GGL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i5-13600K</t>
+  </si>
+  <si>
+    <t>Intel Core i9-13900K</t>
+  </si>
+  <si>
+    <t>Intel Core i7-12700KF</t>
+  </si>
+  <si>
+    <t>Intel Core i7-13700K</t>
+  </si>
+  <si>
+    <t>Intel Core i3-12100F</t>
+  </si>
+  <si>
+    <t>Intel Core i9-12900KF</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/510jsZcyEDL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i9-11900K</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71diouNMRHL._AC_UY436_FMwebp_QL65_.jpg</t>
+  </si>
+  <si>
+    <t>MSI MPG Z790 Edge WiFi DDR4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81LHT-z5-EL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS AM4 TUF Gaming X570-Plus (Wi-Fi) </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/710hyHWebnL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/811WsAtV8FL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Asus ROG MAXIMUS Z690 HERO EVA(ROG x Evangelion)</t>
+  </si>
+  <si>
+    <t>NVIDIA ASUS ROG STRIX RTX 3080 EVA</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81h5R6ojhwL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://dlcdnwebimgs.asus.com/gain/A96FC491-FEAA-4DFA-96A8-B95832F87C8B/w1000/h732</t>
+  </si>
+  <si>
+    <t>NVIDIA ASUS ROG STRIX RTX 3080 GUNDAM EDITON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -661,11 +746,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -983,28 +1065,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAAB6F-9E62-3845-85E0-19A3456B57F7}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1012,77 +1094,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1">
+        <v>140</v>
+      </c>
+      <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="1">
+        <v>141</v>
+      </c>
+      <c r="B3">
         <v>700</v>
       </c>
       <c r="C3">
         <v>54</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2">
+        <v>134</v>
+      </c>
+      <c r="B4">
         <v>2581.54</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1923.52</v>
+        <v>139</v>
+      </c>
+      <c r="B5">
+        <v>1924</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="3">
+        <v>135</v>
+      </c>
+      <c r="B6">
         <v>330</v>
       </c>
       <c r="C6">
         <v>88</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>1200</v>
@@ -1090,13 +1172,13 @@
       <c r="C7">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>1100</v>
@@ -1104,13 +1186,13 @@
       <c r="C8">
         <v>96</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>220</v>
@@ -1118,13 +1200,13 @@
       <c r="C9">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B10">
         <v>451.64</v>
@@ -1132,13 +1214,13 @@
       <c r="C10">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B11">
         <v>1262.76</v>
@@ -1147,12 +1229,12 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>2128</v>
@@ -1161,12 +1243,12 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13">
         <v>1488</v>
@@ -1175,12 +1257,12 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>362.07</v>
@@ -1189,26 +1271,26 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="B15">
-        <v>603.44000000000005</v>
+        <v>1500</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>183</v>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>384.44</v>
@@ -1217,7 +1299,49 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17">
+        <v>768.44</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18">
+        <v>1145.55</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
+        <v>1400</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1231,18 +1355,20 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{95A950B6-ADE6-4B04-A23A-14303BD71398}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{892B6719-E8BD-451D-81F4-60F8452A8CE5}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{9F622F1B-2533-4F95-94F3-9F0A5A1BF156}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{0627D37E-1E17-C14F-A7F3-A91730F3AF53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEF267F-2EC0-D449-8DB3-8973D99C4ABE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="164" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,13 +1378,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1266,7 +1392,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>550</v>
@@ -1274,13 +1400,13 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>154</v>
+      <c r="D2" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>290.17</v>
@@ -1288,13 +1414,13 @@
       <c r="C3">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>155</v>
+      <c r="D3" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B4">
         <v>382.31</v>
@@ -1302,13 +1428,13 @@
       <c r="C4">
         <v>29</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>155</v>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B5">
         <v>492.47</v>
@@ -1316,13 +1442,13 @@
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>156</v>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B6">
         <v>892</v>
@@ -1330,13 +1456,13 @@
       <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
+      <c r="D6" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>921.23</v>
@@ -1344,13 +1470,13 @@
       <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>158</v>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="B8">
         <v>443.95</v>
@@ -1358,13 +1484,13 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>159</v>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>643.37</v>
@@ -1372,13 +1498,13 @@
       <c r="C9">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>160</v>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B10">
         <v>538.91</v>
@@ -1386,8 +1512,134 @@
       <c r="C10">
         <v>199</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>161</v>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>177.69</v>
+      </c>
+      <c r="C11">
+        <v>515</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="C12">
+        <v>368</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13">
+        <v>143.29</v>
+      </c>
+      <c r="C13">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14">
+        <v>192.88</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>136.04</v>
+      </c>
+      <c r="C15">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16">
+        <v>251.85</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17">
+        <v>180.2</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18">
+        <v>563.32000000000005</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19">
+        <v>478.63</v>
+      </c>
+      <c r="C19">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1403,17 +1655,18 @@
     <hyperlink ref="D10" r:id="rId9" xr:uid="{6F41043D-F05A-E24D-94BF-89A71EBAA506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92E4109-F6B1-E946-A2B9-5737B2D369DB}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,19 +1676,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1443,7 +1696,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1457,13 +1710,13 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1477,13 +1730,13 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1497,13 +1750,13 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>162</v>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1517,13 +1770,13 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1537,16 +1790,16 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>216.86</v>
@@ -1557,13 +1810,13 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1577,16 +1830,16 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>253.6</v>
@@ -1597,13 +1850,13 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1617,13 +1870,13 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1638,12 +1891,12 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1658,15 +1911,15 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>438.17</v>
@@ -1678,12 +1931,12 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1698,12 +1951,12 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1718,12 +1971,12 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1737,8 +1990,68 @@
       <c r="E16" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>173</v>
+      <c r="F16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>454.66</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>209.99</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>895.55</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1776,33 +2089,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2">
         <v>105.63</v>
@@ -1810,19 +2123,19 @@
       <c r="E2">
         <v>427</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3">
         <v>199.64</v>
@@ -1831,18 +2144,18 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>160.93</v>
@@ -1851,18 +2164,18 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>260.12</v>
@@ -1871,18 +2184,18 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>361.87</v>
@@ -1891,18 +2204,18 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>188.84</v>
@@ -1911,18 +2224,18 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>99.55</v>
@@ -1931,18 +2244,18 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>129.99</v>
@@ -1951,18 +2264,18 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>64.98</v>
@@ -1971,7 +2284,7 @@
         <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2003,22 +2316,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2026,16 +2339,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
       <c r="E2">
         <v>79.98</v>
@@ -2044,21 +2357,21 @@
         <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="E3">
         <v>159.99</v>
@@ -2067,21 +2380,21 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
       </c>
       <c r="E4">
         <v>49.99</v>
@@ -2090,21 +2403,21 @@
         <v>688</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>159.99</v>
@@ -2113,21 +2426,21 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6">
         <v>129.97</v>
@@ -2136,21 +2449,21 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>49.99</v>
@@ -2159,21 +2472,21 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>58.22</v>
@@ -2182,21 +2495,21 @@
         <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>499.99</v>
@@ -2205,21 +2518,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>399.99</v>
@@ -2228,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2253,16 +2566,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2270,7 +2583,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2282,12 +2595,12 @@
         <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2299,12 +2612,12 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2316,12 +2629,12 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2333,12 +2646,12 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2350,12 +2663,12 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2367,12 +2680,12 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2384,12 +2697,12 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2401,12 +2714,12 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2418,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2445,16 +2758,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>116</v>
-      </c>
-      <c r="C1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2462,10 +2775,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>85.02</v>
@@ -2474,15 +2787,15 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>99.9</v>
@@ -2491,15 +2804,15 @@
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>89.9</v>
@@ -2508,15 +2821,15 @@
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>104.94</v>
@@ -2525,15 +2838,15 @@
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>34.99</v>
@@ -2542,15 +2855,15 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2559,15 +2872,15 @@
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>149.99</v>
@@ -2576,15 +2889,15 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>19.98</v>
@@ -2593,15 +2906,15 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>289.99</v>
@@ -2610,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/OldEgg Schema.xlsx
+++ b/OldEgg Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irfansyakir/Documents/OldEgg Project/OldEgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDD31E-FE23-5B43-A304-11FD76767DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D431D275-E316-C540-9075-7588F26AF817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{77102896-566B-D147-AF31-283E502716C7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{77102896-566B-D147-AF31-283E502716C7}"/>
   </bookViews>
   <sheets>
     <sheet name="gpus" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="262">
   <si>
     <t>link</t>
   </si>
@@ -113,9 +113,6 @@
     <t>https://asset.msi.com/resize/image/global/product/product_1652175968d2d39b873b3c725249e989821bd092de.png62405b38c58fe0f07fcef2367d8a9ba1/1024.png</t>
   </si>
   <si>
-    <t>Corsair Vengeance LPX 16 GB</t>
-  </si>
-  <si>
     <t>DDR4-3200</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>https://www.corsair.com/medias/sys_master/images/images/hf5/h6f/9110987210782/-CMK16GX4M2B3200C16-Gallery-VENG-LPX-BLK-00.png</t>
   </si>
   <si>
-    <t>Corsair Vengeance RGB Pro 32 GB</t>
-  </si>
-  <si>
     <t>DDR4-3600</t>
   </si>
   <si>
@@ -137,51 +131,30 @@
     <t>https://www.corsair.com/medias/sys_master/images/images/h40/hbe/9112785322014/-CMW32GX4M2C3200C16-Gallery-CMW32GX4M2C3200C16-Vengeance-RGB-Pro-01.png</t>
   </si>
   <si>
-    <t>G.Skill Ripjaws V 32 GB</t>
-  </si>
-  <si>
     <t>https://www.gskill.com/_upload/images/153611092211.png</t>
   </si>
   <si>
-    <t>G.Skill Trident Z5 RGB 32 GB</t>
-  </si>
-  <si>
     <t>DDR5-6000</t>
   </si>
   <si>
     <t>https://www.gskill.com/_upload/images/164923497710.png</t>
   </si>
   <si>
-    <t>Corsair Dominator Platinum RGB 32 GB</t>
-  </si>
-  <si>
     <t>DDR5-6200</t>
   </si>
   <si>
     <t>https://www.corsair.com/medias/sys_master/images/images/h92/h96/9181007020062/-CMT32GX4M2C3200C16-Gallery-DOMINATOR-PLAT-RGB-01.png</t>
   </si>
   <si>
-    <t>Corsair Vengeance RGB Pro SL 32 GB</t>
-  </si>
-  <si>
     <t>https://www.corsair.com/us/en/medias/sys_master/images/images/h93/h95/9678466547742/CMH32GX4M2E3200C16/Gallery/VENGEANCE_RGB_PRO_SL_BLACK_01/-CMH32GX4M2E3200C16-Gallery-VENGEANCE-RGB-PRO-SL-BLACK-01.png_1200Wx1200H</t>
   </si>
   <si>
-    <t>Kingston FURY Beast 16 GB</t>
-  </si>
-  <si>
     <t>https://media.kingston.com/kingston/features/ktc-features-memory-beast-ddr4-rgb.jpg</t>
   </si>
   <si>
-    <t>G.Skill Flare X5 32 GB</t>
-  </si>
-  <si>
     <t>https://www.gskill.com/_upload/images/166262266410.png</t>
   </si>
   <si>
-    <t>Corsair Vengeance RGB Pro 16 GB</t>
-  </si>
-  <si>
     <t>https://www.corsair.com/medias/sys_master/images/images/h1f/hbd/9420610568222/-CMW16GX4M2C3200C16-Gallery-Vengeance-RGB-Pro-01.png</t>
   </si>
   <si>
@@ -497,9 +470,6 @@
     <t>https://m.media-amazon.com/images/I/81SXll1-k8L._AC_SL1500_.jpg</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>ASRock A320M-HDV R4.0</t>
   </si>
   <si>
@@ -690,6 +660,174 @@
   </si>
   <si>
     <t>NVIDIA ASUS ROG STRIX RTX 3080 GUNDAM EDITON</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61j3CTxnXVL._AC_SL1280_.jpg</t>
+  </si>
+  <si>
+    <t>TEAMGROUP T-Force Vulcan Z DDR4 32GB</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX DDR4 16 GB</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance RGB DDR4 Pro 32 GB</t>
+  </si>
+  <si>
+    <t>G.Skill Ripjaws V DDR4 32 GB</t>
+  </si>
+  <si>
+    <t>G.Skill Trident Z5 RGB DDR5 32 GB</t>
+  </si>
+  <si>
+    <t>Corsair Dominator Platinum RGB DDR5 32 GB</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance RGB Pro SL DDR4 32 GB</t>
+  </si>
+  <si>
+    <t>Kingston FURY Beast DDR4 16 GB</t>
+  </si>
+  <si>
+    <t>G.Skill Flare X5 DDR5 32 GB</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance RGB Pro DDR4 16 GB</t>
+  </si>
+  <si>
+    <t>Crucial RAM DDR4 8GB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61+0UEKmgoL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Corsair Vengeance DDR5 64GB</t>
+  </si>
+  <si>
+    <t>DDR5-5200</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71AV5PQu1yL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>TEAMGROUP T-Force Vulcan TUF Gaming Alliance DDR4 16GB</t>
+  </si>
+  <si>
+    <t>1 x 8GB</t>
+  </si>
+  <si>
+    <t>2 x 32GB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81EgktUz9RL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>TEAMGROUP Elite DDR3 16GB</t>
+  </si>
+  <si>
+    <t>DDR3-1600</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81F2qnrhIZL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>TEAMGROUP T-Force Delta RGB DDR4 16GB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71KvpD-WuNL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41uwPndwufL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>CORSAIR VENGEANCE RGB DDR5 32GB</t>
+  </si>
+  <si>
+    <t>OLOy Memory DDR4 64GB</t>
+  </si>
+  <si>
+    <t>Crucial Ballistix RGB DDR4 16GB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/612hKK9-nFL._AC_SL1494_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61DPQ7B7BmL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Kingston A400</t>
+  </si>
+  <si>
+    <t>240GB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91RL+MhTWbL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Western Digital WD_BLACK SN770</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51vNa5DEr4L._AC_SL1100_.jpg</t>
+  </si>
+  <si>
+    <t>Seagate IronWolf</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71SAuEK-ZYL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>8TB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71dpms8gexL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Western Digital Purple Pro</t>
+  </si>
+  <si>
+    <t>10TB</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61trMtBnYMS._AC_SL1280_.jpg</t>
+  </si>
+  <si>
+    <t>Crucial CT1000MX500SSD1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81rg-38AdJL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Western Digital WD Blue SN570</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61a+U9YhovL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Western Digital Red NAS</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/710aEelzoRL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81eujrQV8oL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>SAMSUNG 980 PRO</t>
+  </si>
+  <si>
+    <t>250GB</t>
+  </si>
+  <si>
+    <t>ROG Strix Helios GUNDAM EDITION</t>
+  </si>
+  <si>
+    <t>https://dlcdnwebimgs.asus.com/gain/F3161F34-63EB-473E-9DED-ABC415031538/w717/h525</t>
+  </si>
+  <si>
+    <t>https://dlcdnwebimgs.asus.com/files/media/45CA163A-8C91-4CB4-AF6B-323199EB94B4/v1/img/ports_pd.png</t>
+  </si>
+  <si>
+    <t>ROG Strix Helios EVA EDITION (ROG</t>
   </si>
 </sst>
 </file>
@@ -746,10 +884,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1067,9 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAAB6F-9E62-3845-85E0-19A3456B57F7}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,13 +1219,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1094,7 +1233,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -1108,7 +1247,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>700</v>
@@ -1122,7 +1261,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>2581.54</v>
@@ -1136,7 +1275,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>1924</v>
@@ -1150,7 +1289,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>330</v>
@@ -1164,7 +1303,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>1200</v>
@@ -1178,7 +1317,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>1100</v>
@@ -1192,7 +1331,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>220</v>
@@ -1206,7 +1345,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>451.64</v>
@@ -1220,7 +1359,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>1262.76</v>
@@ -1229,12 +1368,12 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <v>2128</v>
@@ -1243,12 +1382,12 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>1488</v>
@@ -1257,12 +1396,12 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>362.07</v>
@@ -1271,12 +1410,12 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B15">
         <v>1500</v>
@@ -1285,12 +1424,12 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B16">
         <v>384.44</v>
@@ -1299,12 +1438,12 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>768.44</v>
@@ -1313,12 +1452,12 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B18">
         <v>1145.55</v>
@@ -1327,12 +1466,12 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B19">
         <v>1400</v>
@@ -1341,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1378,13 +1517,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1392,7 +1531,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>550</v>
@@ -1401,12 +1540,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>290.17</v>
@@ -1415,12 +1554,12 @@
         <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>382.31</v>
@@ -1429,12 +1568,12 @@
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <v>492.47</v>
@@ -1443,12 +1582,12 @@
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B6">
         <v>892</v>
@@ -1457,12 +1596,12 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>921.23</v>
@@ -1471,12 +1610,12 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>443.95</v>
@@ -1485,12 +1624,12 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>643.37</v>
@@ -1499,12 +1638,12 @@
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>538.91</v>
@@ -1513,12 +1652,12 @@
         <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>177.69</v>
@@ -1527,12 +1666,12 @@
         <v>515</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B12">
         <v>147.33000000000001</v>
@@ -1541,12 +1680,12 @@
         <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <v>143.29</v>
@@ -1555,12 +1694,12 @@
         <v>306</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>192.88</v>
@@ -1569,12 +1708,12 @@
         <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>136.04</v>
@@ -1583,12 +1722,12 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>251.85</v>
@@ -1597,12 +1736,12 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B17">
         <v>180.2</v>
@@ -1611,12 +1750,12 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B18">
         <v>563.32000000000005</v>
@@ -1625,12 +1764,12 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>478.63</v>
@@ -1639,7 +1778,7 @@
         <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1664,9 +1803,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F19"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,19 +1815,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1696,7 +1835,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1716,7 +1855,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1736,7 +1875,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1751,12 +1890,12 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1776,7 +1915,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1796,7 +1935,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1816,7 +1955,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1836,10 +1975,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>253.6</v>
@@ -1856,7 +1995,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1876,7 +2015,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1891,12 +2030,12 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1911,15 +2050,15 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>438.17</v>
@@ -1931,12 +2070,12 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1951,12 +2090,12 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1971,12 +2110,12 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1991,12 +2130,12 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2011,12 +2150,12 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -2031,12 +2170,12 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2051,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2074,48 +2213,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891790CD-FED9-6645-971C-1B8467011DAA}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="248" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2">
         <v>105.63</v>
@@ -2124,18 +2263,18 @@
         <v>427</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>199.64</v>
@@ -2144,18 +2283,18 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>160.93</v>
@@ -2164,18 +2303,18 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>260.12</v>
@@ -2184,18 +2323,18 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>361.87</v>
@@ -2204,18 +2343,18 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>188.84</v>
@@ -2224,18 +2363,18 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8">
         <v>99.55</v>
@@ -2244,18 +2383,18 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>129.99</v>
@@ -2264,18 +2403,18 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10">
         <v>64.98</v>
@@ -2284,7 +2423,187 @@
         <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>548</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>112.09</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>336.2</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>69.31</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>42.99</v>
+      </c>
+      <c r="E15">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>120.28</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>190.02</v>
+      </c>
+      <c r="E17">
+        <v>345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18">
+        <v>215.88</v>
+      </c>
+      <c r="E18">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>85.63</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2292,21 +2611,22 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{8D1012F0-7270-4A0E-936D-E5E2B8708F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5AC9D9-31BA-4139-8BDE-4C94495BE8F1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -2316,22 +2636,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2339,16 +2659,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>79.98</v>
@@ -2357,21 +2677,21 @@
         <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>159.99</v>
@@ -2380,21 +2700,21 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>49.99</v>
@@ -2403,21 +2723,21 @@
         <v>688</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>159.99</v>
@@ -2426,21 +2746,21 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>129.97</v>
@@ -2449,21 +2769,21 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>49.99</v>
@@ -2472,21 +2792,21 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>58.22</v>
@@ -2495,21 +2815,21 @@
         <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>499.99</v>
@@ -2518,21 +2838,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>399.99</v>
@@ -2541,41 +2861,253 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>48.23</v>
+      </c>
+      <c r="F11">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>87.69</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>113.67</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+      <c r="G13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>193.66</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15">
+        <v>350</v>
+      </c>
+      <c r="F15">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>86.26</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>160.83000000000001</v>
+      </c>
+      <c r="F17">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>101.62</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{595CB297-3D8A-A44C-A7BA-B4C3FAB83F6A}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{F28E187F-5761-B24F-9121-DA47366E78DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6948162-75CF-754A-8D23-788AF1B9B792}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2583,7 +3115,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2592,15 +3124,15 @@
         <v>94.66</v>
       </c>
       <c r="D2">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2612,12 +3144,12 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2629,12 +3161,12 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2643,15 +3175,15 @@
         <v>49.99</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2663,12 +3195,12 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2680,12 +3212,12 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2697,12 +3229,12 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2714,12 +3246,12 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2731,11 +3263,78 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>428</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2758,16 +3357,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2775,10 +3374,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>85.02</v>
@@ -2787,15 +3386,15 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>99.9</v>
@@ -2804,15 +3403,15 @@
         <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>89.9</v>
@@ -2821,15 +3420,15 @@
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>104.94</v>
@@ -2838,15 +3437,15 @@
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>34.99</v>
@@ -2855,15 +3454,15 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2872,15 +3471,15 @@
         <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>149.99</v>
@@ -2889,15 +3488,15 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>19.98</v>
@@ -2906,15 +3505,15 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>289.99</v>
@@ -2923,7 +3522,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
